--- a/HopeMDM/2015年11月5日【维护】6500 0211 增加市场小微的维护功能/字段权限配置.xlsx
+++ b/HopeMDM/2015年11月5日【维护】6500 0211 增加市场小微的维护功能/字段权限配置.xlsx
@@ -1,28 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="APP" sheetId="1" r:id="rId1"/>
+    <sheet name="DEV" sheetId="2" r:id="rId2"/>
+    <sheet name="必填" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="28">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>自动创建配置</t>
+  </si>
+  <si>
+    <t>CST-CREATE-6500-0211</t>
+  </si>
+  <si>
+    <t>CustomerApplicant</t>
+  </si>
+  <si>
+    <t>HM_APPLY_CUSTOMER</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>FIELDS</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>MDCCustomer</t>
+  </si>
+  <si>
+    <t>FinancialManager</t>
+  </si>
+  <si>
+    <t>OBD_AR_TEAM</t>
+  </si>
+  <si>
+    <t>QueryApp</t>
+  </si>
+  <si>
+    <t>MARKET_MICRO_ENT</t>
+  </si>
+  <si>
+    <t>2015110901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015110902</t>
+  </si>
+  <si>
+    <t>2015110903</t>
+  </si>
+  <si>
+    <t>2015110904</t>
+  </si>
+  <si>
+    <t>2015110905</t>
+  </si>
+  <si>
+    <t>2015110906</t>
+  </si>
+  <si>
+    <t>0970</t>
+  </si>
+  <si>
+    <t>AAAb3tAARAAACU2AAF</t>
+  </si>
+  <si>
+    <t>MARKET_MICRO_ENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +146,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +449,946 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>